--- a/Jogos_do_Dia/2024-04-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -163,12 +163,12 @@
     <t>Germany 2. Bundesliga</t>
   </si>
   <si>
+    <t>Portugal LigaPro</t>
+  </si>
+  <si>
     <t>Denmark Superliga</t>
   </si>
   <si>
-    <t>Portugal LigaPro</t>
-  </si>
-  <si>
     <t>Austria Bundesliga</t>
   </si>
   <si>
@@ -190,12 +190,12 @@
     <t>Spain Segunda División</t>
   </si>
   <si>
+    <t>Wales Welsh Premier League</t>
+  </si>
+  <si>
     <t>Belgium Pro League</t>
   </si>
   <si>
-    <t>Wales Welsh Premier League</t>
-  </si>
-  <si>
     <t>Italy Serie A</t>
   </si>
   <si>
@@ -265,51 +265,51 @@
     <t>Cracovia Kraków</t>
   </si>
   <si>
+    <t>Kapfenberger SV</t>
+  </si>
+  <si>
+    <t>Horn</t>
+  </si>
+  <si>
+    <t>First Vienna</t>
+  </si>
+  <si>
     <t>SV Stripfing Weiden</t>
   </si>
   <si>
-    <t>First Vienna</t>
-  </si>
-  <si>
-    <t>Horn</t>
-  </si>
-  <si>
-    <t>Kapfenberger SV</t>
+    <t>Paderborn</t>
   </si>
   <si>
     <t>Hansa Rostock</t>
   </si>
   <si>
-    <t>Paderborn</t>
+    <t>CD Nacional</t>
   </si>
   <si>
     <t>Lyngby</t>
   </si>
   <si>
-    <t>CD Nacional</t>
+    <t>Sepsi</t>
   </si>
   <si>
     <t>Rheindorf Altach</t>
   </si>
   <si>
-    <t>Sepsi</t>
+    <t>Telstar</t>
+  </si>
+  <si>
+    <t>Oss</t>
+  </si>
+  <si>
+    <t>MVV</t>
+  </si>
+  <si>
+    <t>Dordrecht</t>
   </si>
   <si>
     <t>Cambuur</t>
   </si>
   <si>
-    <t>Oss</t>
-  </si>
-  <si>
-    <t>Dordrecht</t>
-  </si>
-  <si>
-    <t>Telstar</t>
-  </si>
-  <si>
-    <t>MVV</t>
-  </si>
-  <si>
     <t>Aluminij</t>
   </si>
   <si>
@@ -331,15 +331,15 @@
     <t>Elche CF</t>
   </si>
   <si>
+    <t>Haverfordwest County</t>
+  </si>
+  <si>
+    <t>The New Saints</t>
+  </si>
+  <si>
     <t>KV Mechelen</t>
   </si>
   <si>
-    <t>Haverfordwest County</t>
-  </si>
-  <si>
-    <t>The New Saints</t>
-  </si>
-  <si>
     <t>Bala Town</t>
   </si>
   <si>
@@ -370,51 +370,51 @@
     <t>ŁKS Łódź</t>
   </si>
   <si>
+    <t>Ried</t>
+  </si>
+  <si>
+    <t>Lafnitz</t>
+  </si>
+  <si>
+    <t>St. Pölten</t>
+  </si>
+  <si>
     <t>Liefering</t>
   </si>
   <si>
-    <t>St. Pölten</t>
-  </si>
-  <si>
-    <t>Lafnitz</t>
-  </si>
-  <si>
-    <t>Ried</t>
+    <t>Hertha BSC</t>
   </si>
   <si>
     <t>Wehen Wiesbaden</t>
   </si>
   <si>
-    <t>Hertha BSC</t>
+    <t>AVS</t>
   </si>
   <si>
     <t>OB</t>
   </si>
   <si>
-    <t>AVS</t>
+    <t>SSC Farul</t>
   </si>
   <si>
     <t>Wattens</t>
   </si>
   <si>
-    <t>SSC Farul</t>
+    <t>PSV II</t>
+  </si>
+  <si>
+    <t>Eindhoven</t>
+  </si>
+  <si>
+    <t>Helmond Sport</t>
+  </si>
+  <si>
+    <t>De Graafschap</t>
   </si>
   <si>
     <t>ADO Den Haag</t>
   </si>
   <si>
-    <t>Eindhoven</t>
-  </si>
-  <si>
-    <t>De Graafschap</t>
-  </si>
-  <si>
-    <t>PSV II</t>
-  </si>
-  <si>
-    <t>Helmond Sport</t>
-  </si>
-  <si>
     <t>Maribor</t>
   </si>
   <si>
@@ -436,13 +436,13 @@
     <t>Real Oviedo</t>
   </si>
   <si>
+    <t>Barry Town United</t>
+  </si>
+  <si>
+    <t>Caernarfon Town</t>
+  </si>
+  <si>
     <t>Sint-Truiden</t>
-  </si>
-  <si>
-    <t>Barry Town United</t>
-  </si>
-  <si>
-    <t>Caernarfon Town</t>
   </si>
   <si>
     <t>Newtown</t>
@@ -1084,10 +1084,10 @@
         <v>1.36</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1119,13 +1119,13 @@
         <v>4.51</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="K3">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L3">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="M3">
         <v>1.46</v>
@@ -1146,10 +1146,10 @@
         <v>3.01</v>
       </c>
       <c r="S3">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="T3">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="U3">
         <v>1.9</v>
@@ -1215,10 +1215,10 @@
         <v>1.45</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1250,13 +1250,13 @@
         <v>1.9</v>
       </c>
       <c r="J4">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="K4">
-        <v>4.4</v>
+        <v>4.33</v>
       </c>
       <c r="L4">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="M4">
         <v>1.25</v>
@@ -1277,10 +1277,10 @@
         <v>5.07</v>
       </c>
       <c r="S4">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="T4">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="U4">
         <v>1.6</v>
@@ -1313,19 +1313,19 @@
         <v>3.84</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AJ4">
         <v>1.85</v>
@@ -1334,22 +1334,22 @@
         <v>1.95</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1381,13 +1381,13 @@
         <v>5.5</v>
       </c>
       <c r="J5">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="K5">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="L5">
-        <v>6.25</v>
+        <v>5.7</v>
       </c>
       <c r="M5">
         <v>1.34</v>
@@ -1503,115 +1503,115 @@
         <v>118</v>
       </c>
       <c r="G6">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="H6">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="I6">
+        <v>2.05</v>
+      </c>
+      <c r="J6">
+        <v>5.25</v>
+      </c>
+      <c r="K6">
+        <v>3.9</v>
+      </c>
+      <c r="L6">
+        <v>1.5</v>
+      </c>
+      <c r="M6">
+        <v>1.36</v>
+      </c>
+      <c r="N6">
+        <v>2.99</v>
+      </c>
+      <c r="O6">
+        <v>1.01</v>
+      </c>
+      <c r="P6">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>1.24</v>
+      </c>
+      <c r="R6">
+        <v>3.48</v>
+      </c>
+      <c r="S6">
+        <v>1.8</v>
+      </c>
+      <c r="T6">
+        <v>1.9</v>
+      </c>
+      <c r="U6">
+        <v>1.83</v>
+      </c>
+      <c r="V6">
+        <v>1.83</v>
+      </c>
+      <c r="W6">
+        <v>2.32</v>
+      </c>
+      <c r="X6">
+        <v>1.22</v>
+      </c>
+      <c r="Y6">
+        <v>1.13</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1.2</v>
+      </c>
+      <c r="AB6">
+        <v>1.24</v>
+      </c>
+      <c r="AC6">
+        <v>1.55</v>
+      </c>
+      <c r="AD6">
+        <v>2.79</v>
+      </c>
+      <c r="AE6">
+        <v>3.58</v>
+      </c>
+      <c r="AF6">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG6">
+        <v>1.38</v>
+      </c>
+      <c r="AH6">
+        <v>1.21</v>
+      </c>
+      <c r="AI6">
+        <v>3.74</v>
+      </c>
+      <c r="AJ6">
+        <v>1.39</v>
+      </c>
+      <c r="AK6">
+        <v>2.77</v>
+      </c>
+      <c r="AL6">
+        <v>1.73</v>
+      </c>
+      <c r="AM6">
+        <v>1.99</v>
+      </c>
+      <c r="AN6">
         <v>2.2</v>
       </c>
-      <c r="J6">
-        <v>4.2</v>
-      </c>
-      <c r="K6">
-        <v>4</v>
-      </c>
-      <c r="L6">
-        <v>1.7</v>
-      </c>
-      <c r="M6">
-        <v>1.25</v>
-      </c>
-      <c r="N6">
-        <v>3.45</v>
-      </c>
-      <c r="O6">
-        <v>1.03</v>
-      </c>
-      <c r="P6">
-        <v>10</v>
-      </c>
-      <c r="Q6">
-        <v>1.17</v>
-      </c>
-      <c r="R6">
-        <v>4.75</v>
-      </c>
-      <c r="S6">
-        <v>1.57</v>
-      </c>
-      <c r="T6">
-        <v>2.35</v>
-      </c>
-      <c r="U6">
-        <v>1.62</v>
-      </c>
-      <c r="V6">
-        <v>2.2</v>
-      </c>
-      <c r="W6">
-        <v>2.1</v>
-      </c>
-      <c r="X6">
-        <v>1.18</v>
-      </c>
-      <c r="Y6">
-        <v>1.2</v>
-      </c>
-      <c r="Z6">
+      <c r="AO6">
         <v>1.6</v>
       </c>
-      <c r="AA6">
-        <v>1.1</v>
-      </c>
-      <c r="AB6">
-        <v>1.17</v>
-      </c>
-      <c r="AC6">
-        <v>1.64</v>
-      </c>
-      <c r="AD6">
-        <v>2.81</v>
-      </c>
-      <c r="AE6">
-        <v>2.97</v>
-      </c>
-      <c r="AF6">
-        <v>9.4</v>
-      </c>
-      <c r="AG6">
-        <v>1.51</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>1.33</v>
-      </c>
-      <c r="AK6">
-        <v>3.05</v>
-      </c>
-      <c r="AL6">
-        <v>1.74</v>
-      </c>
-      <c r="AM6">
-        <v>2.05</v>
-      </c>
-      <c r="AN6">
-        <v>2.16</v>
-      </c>
-      <c r="AO6">
-        <v>1.66</v>
-      </c>
       <c r="AP6">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="AQ6">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1634,85 +1634,85 @@
         <v>119</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="H7">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I7">
+        <v>3.2</v>
+      </c>
+      <c r="J7">
+        <v>2.1</v>
+      </c>
+      <c r="K7">
+        <v>3.6</v>
+      </c>
+      <c r="L7">
+        <v>2.75</v>
+      </c>
+      <c r="M7">
+        <v>1.31</v>
+      </c>
+      <c r="N7">
+        <v>3.28</v>
+      </c>
+      <c r="O7">
+        <v>1.02</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>1.18</v>
+      </c>
+      <c r="R7">
+        <v>4.05</v>
+      </c>
+      <c r="S7">
+        <v>1.65</v>
+      </c>
+      <c r="T7">
+        <v>2.1</v>
+      </c>
+      <c r="U7">
+        <v>1.57</v>
+      </c>
+      <c r="V7">
+        <v>2.25</v>
+      </c>
+      <c r="W7">
+        <v>1.33</v>
+      </c>
+      <c r="X7">
+        <v>1.26</v>
+      </c>
+      <c r="Y7">
+        <v>1.71</v>
+      </c>
+      <c r="Z7">
+        <v>2.1</v>
+      </c>
+      <c r="AA7">
+        <v>1.1</v>
+      </c>
+      <c r="AB7">
+        <v>1.41</v>
+      </c>
+      <c r="AC7">
+        <v>1.19</v>
+      </c>
+      <c r="AD7">
         <v>2.6</v>
       </c>
-      <c r="J7">
-        <v>3.5</v>
-      </c>
-      <c r="K7">
-        <v>3.4</v>
-      </c>
-      <c r="L7">
-        <v>1.95</v>
-      </c>
-      <c r="M7">
-        <v>1.38</v>
-      </c>
-      <c r="N7">
-        <v>2.8</v>
-      </c>
-      <c r="O7">
-        <v>1.05</v>
-      </c>
-      <c r="P7">
-        <v>8.5</v>
-      </c>
-      <c r="Q7">
-        <v>1.28</v>
-      </c>
-      <c r="R7">
-        <v>3.45</v>
-      </c>
-      <c r="S7">
-        <v>1.9</v>
-      </c>
-      <c r="T7">
-        <v>1.9</v>
-      </c>
-      <c r="U7">
-        <v>1.8</v>
-      </c>
-      <c r="V7">
-        <v>1.91</v>
-      </c>
-      <c r="W7">
-        <v>1.75</v>
-      </c>
-      <c r="X7">
-        <v>1.25</v>
-      </c>
-      <c r="Y7">
-        <v>1.3</v>
-      </c>
-      <c r="Z7">
-        <v>1.5</v>
-      </c>
-      <c r="AA7">
-        <v>1.7</v>
-      </c>
-      <c r="AB7">
-        <v>1.31</v>
-      </c>
-      <c r="AC7">
-        <v>1.57</v>
-      </c>
-      <c r="AD7">
-        <v>2.88</v>
-      </c>
       <c r="AE7">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="AF7">
         <v>9.1</v>
       </c>
       <c r="AG7">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1721,28 +1721,28 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AK7">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AL7">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="AM7">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AN7">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="AO7">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="AP7">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="AQ7">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1765,85 +1765,85 @@
         <v>120</v>
       </c>
       <c r="G8">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="H8">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="I8">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="J8">
+        <v>3.15</v>
+      </c>
+      <c r="K8">
+        <v>3.4</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>1.38</v>
+      </c>
+      <c r="N8">
+        <v>2.8</v>
+      </c>
+      <c r="O8">
+        <v>1.05</v>
+      </c>
+      <c r="P8">
+        <v>8.5</v>
+      </c>
+      <c r="Q8">
+        <v>1.28</v>
+      </c>
+      <c r="R8">
+        <v>3.45</v>
+      </c>
+      <c r="S8">
+        <v>1.85</v>
+      </c>
+      <c r="T8">
+        <v>1.85</v>
+      </c>
+      <c r="U8">
+        <v>1.73</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>1.75</v>
+      </c>
+      <c r="X8">
+        <v>1.25</v>
+      </c>
+      <c r="Y8">
+        <v>1.3</v>
+      </c>
+      <c r="Z8">
+        <v>1.5</v>
+      </c>
+      <c r="AA8">
+        <v>1.7</v>
+      </c>
+      <c r="AB8">
+        <v>1.31</v>
+      </c>
+      <c r="AC8">
+        <v>1.57</v>
+      </c>
+      <c r="AD8">
+        <v>2.88</v>
+      </c>
+      <c r="AE8">
         <v>2.2</v>
-      </c>
-      <c r="K8">
-        <v>3.6</v>
-      </c>
-      <c r="L8">
-        <v>2.8</v>
-      </c>
-      <c r="M8">
-        <v>1.31</v>
-      </c>
-      <c r="N8">
-        <v>3.28</v>
-      </c>
-      <c r="O8">
-        <v>1.02</v>
-      </c>
-      <c r="P8">
-        <v>10</v>
-      </c>
-      <c r="Q8">
-        <v>1.18</v>
-      </c>
-      <c r="R8">
-        <v>4.05</v>
-      </c>
-      <c r="S8">
-        <v>1.67</v>
-      </c>
-      <c r="T8">
-        <v>2.15</v>
-      </c>
-      <c r="U8">
-        <v>1.62</v>
-      </c>
-      <c r="V8">
-        <v>2.2</v>
-      </c>
-      <c r="W8">
-        <v>1.33</v>
-      </c>
-      <c r="X8">
-        <v>1.26</v>
-      </c>
-      <c r="Y8">
-        <v>1.71</v>
-      </c>
-      <c r="Z8">
-        <v>2.1</v>
-      </c>
-      <c r="AA8">
-        <v>1.1</v>
-      </c>
-      <c r="AB8">
-        <v>1.41</v>
-      </c>
-      <c r="AC8">
-        <v>1.19</v>
-      </c>
-      <c r="AD8">
-        <v>2.6</v>
-      </c>
-      <c r="AE8">
-        <v>1.73</v>
       </c>
       <c r="AF8">
         <v>9.1</v>
       </c>
       <c r="AG8">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -1852,28 +1852,28 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AK8">
         <v>3.1</v>
       </c>
       <c r="AL8">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="AM8">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AN8">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="AO8">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="AP8">
-        <v>2.65</v>
+        <v>2.33</v>
       </c>
       <c r="AQ8">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1896,115 +1896,115 @@
         <v>121</v>
       </c>
       <c r="G9">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="H9">
+        <v>2.4</v>
+      </c>
+      <c r="I9">
         <v>2.2</v>
       </c>
-      <c r="I9">
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>3.9</v>
+      </c>
+      <c r="L9">
+        <v>1.65</v>
+      </c>
+      <c r="M9">
+        <v>1.25</v>
+      </c>
+      <c r="N9">
+        <v>3.45</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>1.17</v>
+      </c>
+      <c r="R9">
+        <v>4.75</v>
+      </c>
+      <c r="S9">
+        <v>1.53</v>
+      </c>
+      <c r="T9">
+        <v>2.35</v>
+      </c>
+      <c r="U9">
+        <v>1.57</v>
+      </c>
+      <c r="V9">
+        <v>2.25</v>
+      </c>
+      <c r="W9">
         <v>2.1</v>
       </c>
-      <c r="J9">
-        <v>5.5</v>
-      </c>
-      <c r="K9">
-        <v>3.8</v>
-      </c>
-      <c r="L9">
-        <v>1.57</v>
-      </c>
-      <c r="M9">
-        <v>1.36</v>
-      </c>
-      <c r="N9">
-        <v>2.99</v>
-      </c>
-      <c r="O9">
-        <v>1.01</v>
-      </c>
-      <c r="P9">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="Q9">
-        <v>1.24</v>
-      </c>
-      <c r="R9">
-        <v>3.48</v>
-      </c>
-      <c r="S9">
-        <v>1.85</v>
-      </c>
-      <c r="T9">
-        <v>1.95</v>
-      </c>
-      <c r="U9">
-        <v>1.91</v>
-      </c>
-      <c r="V9">
-        <v>1.8</v>
-      </c>
-      <c r="W9">
-        <v>2.32</v>
-      </c>
       <c r="X9">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="Y9">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AA9">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AB9">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AC9">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="AD9">
-        <v>2.79</v>
+        <v>2.81</v>
       </c>
       <c r="AE9">
-        <v>3.58</v>
+        <v>2.97</v>
       </c>
       <c r="AF9">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG9">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="AH9">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>3.74</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AK9">
-        <v>2.77</v>
+        <v>3.05</v>
       </c>
       <c r="AL9">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="AM9">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="AN9">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AO9">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="AP9">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="AQ9">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -2027,76 +2027,76 @@
         <v>122</v>
       </c>
       <c r="G10">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H10">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="I10">
         <v>3.4</v>
       </c>
       <c r="J10">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="K10">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="L10">
+        <v>2.91</v>
+      </c>
+      <c r="M10">
+        <v>1.22</v>
+      </c>
+      <c r="N10">
+        <v>3.8</v>
+      </c>
+      <c r="O10">
+        <v>1.01</v>
+      </c>
+      <c r="P10">
+        <v>11</v>
+      </c>
+      <c r="Q10">
+        <v>1.11</v>
+      </c>
+      <c r="R10">
+        <v>5.7</v>
+      </c>
+      <c r="S10">
+        <v>1.44</v>
+      </c>
+      <c r="T10">
+        <v>2.6</v>
+      </c>
+      <c r="U10">
+        <v>1.4</v>
+      </c>
+      <c r="V10">
         <v>2.7</v>
       </c>
-      <c r="M10">
-        <v>1.33</v>
-      </c>
-      <c r="N10">
-        <v>3</v>
-      </c>
-      <c r="O10">
-        <v>1.03</v>
-      </c>
-      <c r="P10">
-        <v>9.5</v>
-      </c>
-      <c r="Q10">
-        <v>1.25</v>
-      </c>
-      <c r="R10">
-        <v>3.6</v>
-      </c>
-      <c r="S10">
-        <v>1.88</v>
-      </c>
-      <c r="T10">
-        <v>1.93</v>
-      </c>
-      <c r="U10">
+      <c r="W10">
+        <v>1.37</v>
+      </c>
+      <c r="X10">
+        <v>1.28</v>
+      </c>
+      <c r="Y10">
         <v>1.62</v>
       </c>
-      <c r="V10">
-        <v>2.15</v>
-      </c>
-      <c r="W10">
-        <v>1.35</v>
-      </c>
-      <c r="X10">
-        <v>1.35</v>
-      </c>
-      <c r="Y10">
-        <v>1.55</v>
-      </c>
       <c r="Z10">
+        <v>1.38</v>
+      </c>
+      <c r="AA10">
+        <v>1.15</v>
+      </c>
+      <c r="AB10">
+        <v>1.72</v>
+      </c>
+      <c r="AC10">
         <v>1.31</v>
       </c>
-      <c r="AA10">
-        <v>1</v>
-      </c>
-      <c r="AB10">
-        <v>1.34</v>
-      </c>
-      <c r="AC10">
-        <v>1.29</v>
-      </c>
       <c r="AD10">
-        <v>2.63</v>
+        <v>3.03</v>
       </c>
       <c r="AE10">
         <v>1.69</v>
@@ -2105,25 +2105,25 @@
         <v>8.5</v>
       </c>
       <c r="AG10">
-        <v>2.53</v>
+        <v>2.62</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AN10">
         <v>2</v>
@@ -2132,10 +2132,10 @@
         <v>1.8</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2158,76 +2158,76 @@
         <v>123</v>
       </c>
       <c r="G11">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H11">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="I11">
         <v>3.4</v>
       </c>
       <c r="J11">
-        <v>2.14</v>
+        <v>2.48</v>
       </c>
       <c r="K11">
+        <v>3.45</v>
+      </c>
+      <c r="L11">
+        <v>2.79</v>
+      </c>
+      <c r="M11">
+        <v>1.33</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>9.5</v>
+      </c>
+      <c r="Q11">
+        <v>1.25</v>
+      </c>
+      <c r="R11">
         <v>3.6</v>
       </c>
-      <c r="L11">
-        <v>3.15</v>
-      </c>
-      <c r="M11">
-        <v>1.22</v>
-      </c>
-      <c r="N11">
-        <v>3.8</v>
-      </c>
-      <c r="O11">
-        <v>1.01</v>
-      </c>
-      <c r="P11">
-        <v>11</v>
-      </c>
-      <c r="Q11">
-        <v>1.11</v>
-      </c>
-      <c r="R11">
-        <v>5.7</v>
-      </c>
       <c r="S11">
-        <v>1.37</v>
+        <v>1.89</v>
       </c>
       <c r="T11">
-        <v>2.64</v>
+        <v>1.97</v>
       </c>
       <c r="U11">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="V11">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="W11">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X11">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="Y11">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="Z11">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="AA11">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>1.72</v>
+        <v>1.34</v>
       </c>
       <c r="AC11">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AD11">
-        <v>3.03</v>
+        <v>2.63</v>
       </c>
       <c r="AE11">
         <v>1.69</v>
@@ -2236,25 +2236,25 @@
         <v>8.5</v>
       </c>
       <c r="AG11">
-        <v>2.62</v>
+        <v>2.53</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>4.65</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AN11">
         <v>2</v>
@@ -2263,10 +2263,10 @@
         <v>1.8</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2280,7 +2280,7 @@
         <v>70</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
         <v>89</v>
@@ -2289,85 +2289,85 @@
         <v>124</v>
       </c>
       <c r="G12">
-        <v>3.5</v>
+        <v>2.81</v>
       </c>
       <c r="H12">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="I12">
-        <v>2.88</v>
+        <v>3.83</v>
       </c>
       <c r="J12">
-        <v>2.95</v>
+        <v>2.13</v>
       </c>
       <c r="K12">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L12">
-        <v>2.25</v>
+        <v>2.84</v>
       </c>
       <c r="M12">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N12">
-        <v>3.25</v>
+        <v>3.13</v>
       </c>
       <c r="O12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="P12">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Q12">
         <v>1.25</v>
       </c>
       <c r="R12">
-        <v>3.95</v>
+        <v>3.42</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="T12">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="U12">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="V12">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W12">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="X12">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Y12">
-        <v>1.36</v>
+        <v>1.63</v>
       </c>
       <c r="Z12">
-        <v>1.45</v>
+        <v>2.31</v>
       </c>
       <c r="AA12">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="AB12">
-        <v>1.4</v>
+        <v>1.78</v>
       </c>
       <c r="AC12">
-        <v>1.19</v>
+        <v>1.44</v>
       </c>
       <c r="AD12">
-        <v>2.59</v>
+        <v>3.22</v>
       </c>
       <c r="AE12">
-        <v>2.2</v>
+        <v>1.68</v>
       </c>
       <c r="AF12">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="AG12">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -2376,28 +2376,28 @@
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>1.36</v>
+        <v>1.16</v>
       </c>
       <c r="AK12">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="AL12">
-        <v>1.62</v>
+        <v>1.32</v>
       </c>
       <c r="AM12">
-        <v>2.18</v>
+        <v>2.98</v>
       </c>
       <c r="AN12">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="AO12">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="AP12">
-        <v>2.5</v>
+        <v>1.89</v>
       </c>
       <c r="AQ12">
-        <v>1.48</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2411,7 +2411,7 @@
         <v>70</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
         <v>90</v>
@@ -2420,120 +2420,120 @@
         <v>125</v>
       </c>
       <c r="G13">
-        <v>2.81</v>
+        <v>3.5</v>
       </c>
       <c r="H13">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="I13">
-        <v>3.83</v>
+        <v>2.88</v>
       </c>
       <c r="J13">
-        <v>2.07</v>
+        <v>2.79</v>
       </c>
       <c r="K13">
-        <v>3.09</v>
+        <v>3.5</v>
       </c>
       <c r="L13">
-        <v>2.91</v>
+        <v>2.29</v>
       </c>
       <c r="M13">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N13">
-        <v>3.13</v>
+        <v>3.25</v>
       </c>
       <c r="O13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="P13">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Q13">
         <v>1.25</v>
       </c>
       <c r="R13">
-        <v>3.42</v>
+        <v>3.95</v>
       </c>
       <c r="S13">
+        <v>1.85</v>
+      </c>
+      <c r="T13">
+        <v>2.01</v>
+      </c>
+      <c r="U13">
+        <v>1.62</v>
+      </c>
+      <c r="V13">
+        <v>2.2</v>
+      </c>
+      <c r="W13">
+        <v>1.62</v>
+      </c>
+      <c r="X13">
+        <v>1.25</v>
+      </c>
+      <c r="Y13">
+        <v>1.36</v>
+      </c>
+      <c r="Z13">
+        <v>1.45</v>
+      </c>
+      <c r="AA13">
         <v>1.91</v>
       </c>
-      <c r="T13">
-        <v>1.95</v>
-      </c>
-      <c r="U13">
-        <v>1.7</v>
-      </c>
-      <c r="V13">
-        <v>2.1</v>
-      </c>
-      <c r="W13">
-        <v>1.33</v>
-      </c>
-      <c r="X13">
-        <v>1.3</v>
-      </c>
-      <c r="Y13">
-        <v>1.63</v>
-      </c>
-      <c r="Z13">
-        <v>2.31</v>
-      </c>
-      <c r="AA13">
-        <v>2.15</v>
-      </c>
       <c r="AB13">
-        <v>1.78</v>
+        <v>1.4</v>
       </c>
       <c r="AC13">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="AD13">
-        <v>3.22</v>
+        <v>2.59</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="14" spans="1:43">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2">
         <v>45387</v>
@@ -2551,120 +2551,120 @@
         <v>126</v>
       </c>
       <c r="G14">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="H14">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="I14">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="J14">
-        <v>1.8</v>
+        <v>2.11</v>
       </c>
       <c r="K14">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="L14">
-        <v>4.4</v>
+        <v>3.05</v>
       </c>
       <c r="M14">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="N14">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="O14">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P14">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="Q14">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R14">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="S14">
         <v>2</v>
       </c>
       <c r="T14">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="U14">
+        <v>1.8</v>
+      </c>
+      <c r="V14">
         <v>1.95</v>
       </c>
-      <c r="V14">
-        <v>1.8</v>
-      </c>
       <c r="W14">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="X14">
         <v>1.25</v>
       </c>
       <c r="Y14">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="Z14">
-        <v>1.08</v>
+        <v>1.69</v>
       </c>
       <c r="AA14">
-        <v>0.83</v>
+        <v>1.5</v>
       </c>
       <c r="AB14">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="AC14">
-        <v>1.12</v>
+        <v>1.45</v>
       </c>
       <c r="AD14">
-        <v>2.56</v>
+        <v>3.06</v>
       </c>
       <c r="AE14">
-        <v>1.51</v>
+        <v>1.82</v>
       </c>
       <c r="AF14">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG14">
-        <v>3.07</v>
+        <v>2.42</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>3.05</v>
       </c>
       <c r="AO14">
-        <v>1.74</v>
+        <v>1.33</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="15" spans="1:43">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2">
         <v>45387</v>
@@ -2682,115 +2682,115 @@
         <v>127</v>
       </c>
       <c r="G15">
+        <v>2.5</v>
+      </c>
+      <c r="H15">
+        <v>2.1</v>
+      </c>
+      <c r="I15">
+        <v>4.75</v>
+      </c>
+      <c r="J15">
+        <v>1.75</v>
+      </c>
+      <c r="K15">
+        <v>3.45</v>
+      </c>
+      <c r="L15">
+        <v>4.6</v>
+      </c>
+      <c r="M15">
+        <v>1.4</v>
+      </c>
+      <c r="N15">
         <v>2.75</v>
       </c>
-      <c r="H15">
-        <v>2.05</v>
-      </c>
-      <c r="I15">
-        <v>3.75</v>
-      </c>
-      <c r="J15">
+      <c r="O15">
+        <v>1.06</v>
+      </c>
+      <c r="P15">
+        <v>9.5</v>
+      </c>
+      <c r="Q15">
+        <v>1.36</v>
+      </c>
+      <c r="R15">
+        <v>3.1</v>
+      </c>
+      <c r="S15">
         <v>2.1</v>
       </c>
-      <c r="K15">
-        <v>3.3</v>
-      </c>
-      <c r="L15">
-        <v>3.1</v>
-      </c>
-      <c r="M15">
-        <v>1.42</v>
-      </c>
-      <c r="N15">
-        <v>2.62</v>
-      </c>
-      <c r="O15">
-        <v>1.05</v>
-      </c>
-      <c r="P15">
-        <v>8</v>
-      </c>
-      <c r="Q15">
-        <v>1.33</v>
-      </c>
-      <c r="R15">
-        <v>3</v>
-      </c>
-      <c r="S15">
-        <v>2.15</v>
-      </c>
       <c r="T15">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U15">
+        <v>1.95</v>
+      </c>
+      <c r="V15">
         <v>1.8</v>
       </c>
-      <c r="V15">
-        <v>1.95</v>
-      </c>
       <c r="W15">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="X15">
         <v>1.25</v>
       </c>
       <c r="Y15">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="Z15">
-        <v>1.69</v>
+        <v>1.08</v>
       </c>
       <c r="AA15">
-        <v>1.5</v>
+        <v>0.83</v>
       </c>
       <c r="AB15">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="AC15">
-        <v>1.45</v>
+        <v>1.12</v>
       </c>
       <c r="AD15">
-        <v>3.06</v>
+        <v>2.56</v>
       </c>
       <c r="AE15">
-        <v>1.82</v>
+        <v>1.51</v>
       </c>
       <c r="AF15">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG15">
-        <v>2.42</v>
+        <v>3.07</v>
       </c>
       <c r="AH15">
-        <v>1.39</v>
+        <v>1.16</v>
       </c>
       <c r="AI15">
-        <v>2.77</v>
+        <v>4.3</v>
       </c>
       <c r="AJ15">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="AK15">
-        <v>1.99</v>
+        <v>2.93</v>
       </c>
       <c r="AL15">
-        <v>2.23</v>
+        <v>1.64</v>
       </c>
       <c r="AM15">
-        <v>1.58</v>
+        <v>2.21</v>
       </c>
       <c r="AN15">
-        <v>3.05</v>
+        <v>2</v>
       </c>
       <c r="AO15">
-        <v>1.33</v>
+        <v>1.74</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -2813,22 +2813,22 @@
         <v>128</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H16">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="I16">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="J16">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="K16">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L16">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
         <v>1.24</v>
@@ -2837,13 +2837,13 @@
         <v>3.8</v>
       </c>
       <c r="O16">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P16">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q16">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="R16">
         <v>5.25</v>
@@ -2858,40 +2858,40 @@
         <v>1.42</v>
       </c>
       <c r="V16">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="W16">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="X16">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y16">
-        <v>1.45</v>
+        <v>1.83</v>
       </c>
       <c r="Z16">
         <v>1.38</v>
       </c>
       <c r="AA16">
-        <v>1.63</v>
+        <v>0.8</v>
       </c>
       <c r="AB16">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="AC16">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AD16">
-        <v>3.43</v>
+        <v>3.19</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="AH16">
         <v>0</v>
@@ -2900,28 +2900,28 @@
         <v>0</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -3016,13 +3016,13 @@
         <v>2.64</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="AH17">
         <v>0</v>
@@ -3031,28 +3031,28 @@
         <v>0</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -3084,106 +3084,106 @@
         <v>3.1</v>
       </c>
       <c r="J18">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="K18">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L18">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="M18">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="N18">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O18">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q18">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="R18">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="S18">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="T18">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="U18">
         <v>1.38</v>
       </c>
       <c r="V18">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="W18">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="X18">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="Y18">
         <v>1.57</v>
       </c>
       <c r="Z18">
-        <v>2.06</v>
+        <v>1.38</v>
       </c>
       <c r="AA18">
-        <v>1.56</v>
+        <v>0.8</v>
       </c>
       <c r="AB18">
-        <v>1.83</v>
+        <v>1.41</v>
       </c>
       <c r="AC18">
-        <v>1.53</v>
+        <v>1.22</v>
       </c>
       <c r="AD18">
-        <v>3.36</v>
+        <v>2.63</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -3206,85 +3206,85 @@
         <v>131</v>
       </c>
       <c r="G19">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="H19">
         <v>2.4</v>
       </c>
       <c r="I19">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J19">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="K19">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L19">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="M19">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="N19">
         <v>3.8</v>
       </c>
       <c r="O19">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q19">
         <v>1.11</v>
       </c>
       <c r="R19">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="S19">
+        <v>1.42</v>
+      </c>
+      <c r="T19">
+        <v>2.62</v>
+      </c>
+      <c r="U19">
+        <v>1.38</v>
+      </c>
+      <c r="V19">
+        <v>2.8</v>
+      </c>
+      <c r="W19">
         <v>1.48</v>
       </c>
-      <c r="T19">
-        <v>2.6</v>
-      </c>
-      <c r="U19">
-        <v>1.42</v>
-      </c>
-      <c r="V19">
-        <v>2.62</v>
-      </c>
-      <c r="W19">
-        <v>1.33</v>
-      </c>
       <c r="X19">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Y19">
+        <v>1.57</v>
+      </c>
+      <c r="Z19">
+        <v>2.06</v>
+      </c>
+      <c r="AA19">
+        <v>1.56</v>
+      </c>
+      <c r="AB19">
         <v>1.83</v>
       </c>
-      <c r="Z19">
-        <v>1.38</v>
-      </c>
-      <c r="AA19">
-        <v>0.8</v>
-      </c>
-      <c r="AB19">
-        <v>1.67</v>
-      </c>
       <c r="AC19">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AD19">
-        <v>3.19</v>
+        <v>3.36</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH19">
         <v>0</v>
@@ -3293,28 +3293,28 @@
         <v>0</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="20" spans="1:43">
@@ -3337,34 +3337,34 @@
         <v>132</v>
       </c>
       <c r="G20">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="I20">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="J20">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="K20">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L20">
-        <v>2.72</v>
+        <v>2.38</v>
       </c>
       <c r="M20">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="N20">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O20">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P20">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Q20">
         <v>1.15</v>
@@ -3379,43 +3379,43 @@
         <v>2.6</v>
       </c>
       <c r="U20">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="V20">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="W20">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="X20">
         <v>1.22</v>
       </c>
       <c r="Y20">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="Z20">
         <v>1.38</v>
       </c>
       <c r="AA20">
-        <v>0.8</v>
+        <v>1.63</v>
       </c>
       <c r="AB20">
-        <v>1.41</v>
+        <v>1.9</v>
       </c>
       <c r="AC20">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="AD20">
-        <v>2.63</v>
+        <v>3.43</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH20">
         <v>0</v>
@@ -3424,28 +3424,28 @@
         <v>0</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AK20">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="21" spans="1:43">
@@ -3477,13 +3477,13 @@
         <v>1.91</v>
       </c>
       <c r="J21">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="K21">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="L21">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="M21">
         <v>1.3</v>
@@ -3504,10 +3504,10 @@
         <v>4</v>
       </c>
       <c r="S21">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="T21">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="U21">
         <v>1.83</v>
@@ -3540,43 +3540,43 @@
         <v>2.78</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -3608,13 +3608,13 @@
         <v>4</v>
       </c>
       <c r="J22">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K22">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L22">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M22">
         <v>1.25</v>
@@ -3635,10 +3635,10 @@
         <v>4.5</v>
       </c>
       <c r="S22">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T22">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="U22">
         <v>1.57</v>
@@ -3671,13 +3671,13 @@
         <v>2.49</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AH22">
         <v>0</v>
@@ -3686,10 +3686,10 @@
         <v>0</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AL22">
         <v>1.53</v>
@@ -3739,13 +3739,13 @@
         <v>2.7</v>
       </c>
       <c r="J23">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="K23">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="L23">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="M23">
         <v>1.44</v>
@@ -3769,7 +3769,7 @@
         <v>2.18</v>
       </c>
       <c r="T23">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="U23">
         <v>1.91</v>
@@ -3811,16 +3811,16 @@
         <v>1.75</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="AJ23">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AL23">
         <v>1.65</v>
@@ -3829,16 +3829,16 @@
         <v>2.13</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="24" spans="1:43">
@@ -3870,13 +3870,13 @@
         <v>2.38</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K24">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L24">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="M24">
         <v>1.43</v>
@@ -3897,10 +3897,10 @@
         <v>3.1</v>
       </c>
       <c r="S24">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="T24">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="U24">
         <v>1.9</v>
@@ -4001,13 +4001,13 @@
         <v>4.33</v>
       </c>
       <c r="J25">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="K25">
         <v>3.75</v>
       </c>
       <c r="L25">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="M25">
         <v>1.33</v>
@@ -4132,13 +4132,13 @@
         <v>3.38</v>
       </c>
       <c r="J26">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="K26">
-        <v>2.87</v>
+        <v>2.96</v>
       </c>
       <c r="L26">
-        <v>2.45</v>
+        <v>2.58</v>
       </c>
       <c r="M26">
         <v>1.59</v>
@@ -4153,13 +4153,13 @@
         <v>6</v>
       </c>
       <c r="Q26">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R26">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="S26">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="T26">
         <v>1.45</v>
@@ -4263,13 +4263,13 @@
         <v>5.39</v>
       </c>
       <c r="J27">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="L27">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="M27">
         <v>1.58</v>
@@ -4290,10 +4290,10 @@
         <v>2.5</v>
       </c>
       <c r="S27">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="T27">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="U27">
         <v>2.1</v>
@@ -4376,7 +4376,7 @@
         <v>75</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
         <v>105</v>
@@ -4385,85 +4385,85 @@
         <v>140</v>
       </c>
       <c r="G28">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="H28">
-        <v>2.27</v>
+        <v>2.1</v>
       </c>
       <c r="I28">
-        <v>4.18</v>
+        <v>4</v>
       </c>
       <c r="J28">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="K28">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L28">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="M28">
         <v>1.38</v>
       </c>
       <c r="N28">
-        <v>3.07</v>
+        <v>2.8</v>
       </c>
       <c r="O28">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P28">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Q28">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="R28">
-        <v>3.28</v>
+        <v>3.4</v>
       </c>
       <c r="S28">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T28">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U28">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="V28">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="W28">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="X28">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Y28">
         <v>1.77</v>
       </c>
       <c r="Z28">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="AA28">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="AB28">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="AC28">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AD28">
-        <v>2.85</v>
+        <v>2.76</v>
       </c>
       <c r="AE28">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG28">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AH28">
         <v>0</v>
@@ -4472,22 +4472,22 @@
         <v>0</v>
       </c>
       <c r="AJ28">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AK28">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AL28">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AM28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN28">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AO28">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AP28">
         <v>0</v>
@@ -4498,7 +4498,7 @@
     </row>
     <row r="29" spans="1:43">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2">
         <v>45387</v>
@@ -4516,76 +4516,76 @@
         <v>141</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>5.95</v>
       </c>
       <c r="Z29">
-        <v>1.36</v>
+        <v>2.85</v>
       </c>
       <c r="AA29">
-        <v>0.93</v>
+        <v>1.29</v>
       </c>
       <c r="AB29">
-        <v>1.44</v>
+        <v>2.69</v>
       </c>
       <c r="AC29">
-        <v>1.32</v>
+        <v>1.51</v>
       </c>
       <c r="AD29">
-        <v>2.76</v>
+        <v>4.2</v>
       </c>
       <c r="AE29">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         <v>75</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
         <v>107</v>
@@ -4647,120 +4647,120 @@
         <v>142</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>4.18</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="Z30">
+        <v>1.67</v>
+      </c>
+      <c r="AA30">
+        <v>0.8</v>
+      </c>
+      <c r="AB30">
+        <v>1.61</v>
+      </c>
+      <c r="AC30">
+        <v>1.24</v>
+      </c>
+      <c r="AD30">
         <v>2.85</v>
       </c>
-      <c r="AA30">
-        <v>1.29</v>
-      </c>
-      <c r="AB30">
-        <v>2.69</v>
-      </c>
-      <c r="AC30">
-        <v>1.51</v>
-      </c>
-      <c r="AD30">
-        <v>4.2</v>
-      </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AJ30">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AK30">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="31" spans="1:43">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="2">
         <v>45387</v>
@@ -4778,61 +4778,61 @@
         <v>143</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Z31">
         <v>1.73</v>
@@ -5121,10 +5121,10 @@
         <v>1.59</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ33">
         <v>1.3</v>
@@ -5442,7 +5442,7 @@
         <v>6</v>
       </c>
       <c r="J36">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="K36">
         <v>3.6</v>
@@ -5469,10 +5469,10 @@
         <v>1.63</v>
       </c>
       <c r="S36">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T36">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="U36">
         <v>2.25</v>

--- a/Jogos_do_Dia/2024-04-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -184,10 +184,13 @@
     <t>Italy Serie B</t>
   </si>
   <si>
+    <t>Spain Segunda División</t>
+  </si>
+  <si>
     <t>Germany Bundesliga</t>
   </si>
   <si>
-    <t>Spain Segunda División</t>
+    <t>Italy Serie A</t>
   </si>
   <si>
     <t>Wales Welsh Premier League</t>
@@ -196,15 +199,12 @@
     <t>Belgium Pro League</t>
   </si>
   <si>
-    <t>Italy Serie A</t>
+    <t>France Ligue 1</t>
   </si>
   <si>
     <t>England Championship</t>
   </si>
   <si>
-    <t>France Ligue 1</t>
-  </si>
-  <si>
     <t>Portugal Liga NOS</t>
   </si>
   <si>
@@ -265,18 +265,18 @@
     <t>Cracovia Kraków</t>
   </si>
   <si>
+    <t>SV Stripfing Weiden</t>
+  </si>
+  <si>
+    <t>First Vienna</t>
+  </si>
+  <si>
+    <t>Horn</t>
+  </si>
+  <si>
     <t>Kapfenberger SV</t>
   </si>
   <si>
-    <t>Horn</t>
-  </si>
-  <si>
-    <t>First Vienna</t>
-  </si>
-  <si>
-    <t>SV Stripfing Weiden</t>
-  </si>
-  <si>
     <t>Paderborn</t>
   </si>
   <si>
@@ -316,42 +316,42 @@
     <t>Stade Nyonnais</t>
   </si>
   <si>
+    <t>Radomiak Radom</t>
+  </si>
+  <si>
     <t>Bari 1908</t>
   </si>
   <si>
-    <t>Radomiak Radom</t>
+    <t>Elche CF</t>
+  </si>
+  <si>
+    <t>SD Amorebieta</t>
   </si>
   <si>
     <t>Eintracht Frankfurt</t>
   </si>
   <si>
-    <t>SD Amorebieta</t>
-  </si>
-  <si>
-    <t>Elche CF</t>
+    <t>Salernitana</t>
+  </si>
+  <si>
+    <t>Bala Town</t>
+  </si>
+  <si>
+    <t>The New Saints</t>
   </si>
   <si>
     <t>Haverfordwest County</t>
   </si>
   <si>
-    <t>The New Saints</t>
-  </si>
-  <si>
     <t>KV Mechelen</t>
   </si>
   <si>
-    <t>Bala Town</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
+    <t>Lille</t>
   </si>
   <si>
     <t>Rotherham United</t>
   </si>
   <si>
-    <t>Lille</t>
-  </si>
-  <si>
     <t>Farense</t>
   </si>
   <si>
@@ -370,18 +370,18 @@
     <t>ŁKS Łódź</t>
   </si>
   <si>
+    <t>Liefering</t>
+  </si>
+  <si>
+    <t>St. Pölten</t>
+  </si>
+  <si>
+    <t>Lafnitz</t>
+  </si>
+  <si>
     <t>Ried</t>
   </si>
   <si>
-    <t>Lafnitz</t>
-  </si>
-  <si>
-    <t>St. Pölten</t>
-  </si>
-  <si>
-    <t>Liefering</t>
-  </si>
-  <si>
     <t>Hertha BSC</t>
   </si>
   <si>
@@ -421,40 +421,40 @@
     <t>Baden</t>
   </si>
   <si>
+    <t>Raków Częstochowa</t>
+  </si>
+  <si>
     <t>Cremonese</t>
   </si>
   <si>
-    <t>Raków Częstochowa</t>
+    <t>Real Oviedo</t>
+  </si>
+  <si>
+    <t>Racing Club de Ferrol</t>
   </si>
   <si>
     <t>Werder Bremen</t>
   </si>
   <si>
-    <t>Racing Club de Ferrol</t>
-  </si>
-  <si>
-    <t>Real Oviedo</t>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Newtown</t>
+  </si>
+  <si>
+    <t>Caernarfon Town</t>
   </si>
   <si>
     <t>Barry Town United</t>
   </si>
   <si>
-    <t>Caernarfon Town</t>
-  </si>
-  <si>
     <t>Sint-Truiden</t>
   </si>
   <si>
-    <t>Newtown</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
+    <t>Olympique Marseille</t>
   </si>
   <si>
     <t>Plymouth Argyle</t>
-  </si>
-  <si>
-    <t>Olympique Marseille</t>
   </si>
   <si>
     <t>Boavista FC</t>
@@ -970,7 +970,7 @@
         <v>65</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -1036,10 +1036,10 @@
         <v>1.06</v>
       </c>
       <c r="Z2">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AB2">
         <v>1.29</v>
@@ -1119,13 +1119,13 @@
         <v>4.51</v>
       </c>
       <c r="J3">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="K3">
+        <v>3.4</v>
+      </c>
+      <c r="L3">
         <v>3.3</v>
-      </c>
-      <c r="L3">
-        <v>3.55</v>
       </c>
       <c r="M3">
         <v>1.46</v>
@@ -1146,10 +1146,10 @@
         <v>3.01</v>
       </c>
       <c r="S3">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="T3">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="U3">
         <v>1.9</v>
@@ -1167,10 +1167,10 @@
         <v>1.76</v>
       </c>
       <c r="Z3">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AA3">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AB3">
         <v>1.48</v>
@@ -1250,13 +1250,13 @@
         <v>1.9</v>
       </c>
       <c r="J4">
-        <v>4.75</v>
+        <v>3.22</v>
       </c>
       <c r="K4">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="L4">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="M4">
         <v>1.25</v>
@@ -1277,10 +1277,10 @@
         <v>5.07</v>
       </c>
       <c r="S4">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="T4">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U4">
         <v>1.6</v>
@@ -1298,10 +1298,10 @@
         <v>1.11</v>
       </c>
       <c r="Z4">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AA4">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AB4">
         <v>2.04</v>
@@ -1381,13 +1381,13 @@
         <v>5.5</v>
       </c>
       <c r="J5">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="K5">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="L5">
-        <v>5.7</v>
+        <v>5.75</v>
       </c>
       <c r="M5">
         <v>1.34</v>
@@ -1408,10 +1408,10 @@
         <v>3.75</v>
       </c>
       <c r="S5">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="U5">
         <v>1.9</v>
@@ -1503,115 +1503,115 @@
         <v>118</v>
       </c>
       <c r="G6">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="I6">
+        <v>2.2</v>
+      </c>
+      <c r="J6">
+        <v>3.3</v>
+      </c>
+      <c r="K6">
+        <v>3.65</v>
+      </c>
+      <c r="L6">
+        <v>1.88</v>
+      </c>
+      <c r="M6">
+        <v>1.25</v>
+      </c>
+      <c r="N6">
+        <v>3.45</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>1.17</v>
+      </c>
+      <c r="R6">
+        <v>4.75</v>
+      </c>
+      <c r="S6">
+        <v>1.56</v>
+      </c>
+      <c r="T6">
+        <v>2.32</v>
+      </c>
+      <c r="U6">
+        <v>1.57</v>
+      </c>
+      <c r="V6">
+        <v>2.25</v>
+      </c>
+      <c r="W6">
+        <v>2.1</v>
+      </c>
+      <c r="X6">
+        <v>1.18</v>
+      </c>
+      <c r="Y6">
+        <v>1.2</v>
+      </c>
+      <c r="Z6">
+        <v>1.6</v>
+      </c>
+      <c r="AA6">
+        <v>1.1</v>
+      </c>
+      <c r="AB6">
+        <v>1.17</v>
+      </c>
+      <c r="AC6">
+        <v>1.64</v>
+      </c>
+      <c r="AD6">
+        <v>2.81</v>
+      </c>
+      <c r="AE6">
+        <v>2.9</v>
+      </c>
+      <c r="AF6">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG6">
+        <v>1.53</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>1.33</v>
+      </c>
+      <c r="AK6">
+        <v>3.05</v>
+      </c>
+      <c r="AL6">
+        <v>2.2</v>
+      </c>
+      <c r="AM6">
         <v>2.05</v>
       </c>
-      <c r="J6">
-        <v>5.25</v>
-      </c>
-      <c r="K6">
-        <v>3.9</v>
-      </c>
-      <c r="L6">
-        <v>1.5</v>
-      </c>
-      <c r="M6">
-        <v>1.36</v>
-      </c>
-      <c r="N6">
-        <v>2.99</v>
-      </c>
-      <c r="O6">
-        <v>1.01</v>
-      </c>
-      <c r="P6">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="Q6">
-        <v>1.24</v>
-      </c>
-      <c r="R6">
-        <v>3.48</v>
-      </c>
-      <c r="S6">
-        <v>1.8</v>
-      </c>
-      <c r="T6">
-        <v>1.9</v>
-      </c>
-      <c r="U6">
-        <v>1.83</v>
-      </c>
-      <c r="V6">
-        <v>1.83</v>
-      </c>
-      <c r="W6">
-        <v>2.32</v>
-      </c>
-      <c r="X6">
-        <v>1.22</v>
-      </c>
-      <c r="Y6">
-        <v>1.13</v>
-      </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-      <c r="AA6">
-        <v>1.2</v>
-      </c>
-      <c r="AB6">
-        <v>1.24</v>
-      </c>
-      <c r="AC6">
-        <v>1.55</v>
-      </c>
-      <c r="AD6">
-        <v>2.79</v>
-      </c>
-      <c r="AE6">
-        <v>3.58</v>
-      </c>
-      <c r="AF6">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG6">
-        <v>1.38</v>
-      </c>
-      <c r="AH6">
-        <v>1.21</v>
-      </c>
-      <c r="AI6">
-        <v>3.74</v>
-      </c>
-      <c r="AJ6">
-        <v>1.39</v>
-      </c>
-      <c r="AK6">
-        <v>2.77</v>
-      </c>
-      <c r="AL6">
-        <v>1.73</v>
-      </c>
-      <c r="AM6">
-        <v>1.99</v>
-      </c>
       <c r="AN6">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="AO6">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="AP6">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="AQ6">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1634,85 +1634,85 @@
         <v>119</v>
       </c>
       <c r="G7">
+        <v>3.4</v>
+      </c>
+      <c r="H7">
+        <v>2.2</v>
+      </c>
+      <c r="I7">
+        <v>2.75</v>
+      </c>
+      <c r="J7">
+        <v>3.2</v>
+      </c>
+      <c r="K7">
+        <v>3.33</v>
+      </c>
+      <c r="L7">
+        <v>2.01</v>
+      </c>
+      <c r="M7">
+        <v>1.38</v>
+      </c>
+      <c r="N7">
+        <v>2.8</v>
+      </c>
+      <c r="O7">
+        <v>1.05</v>
+      </c>
+      <c r="P7">
+        <v>8.5</v>
+      </c>
+      <c r="Q7">
+        <v>1.28</v>
+      </c>
+      <c r="R7">
+        <v>3.45</v>
+      </c>
+      <c r="S7">
+        <v>1.87</v>
+      </c>
+      <c r="T7">
+        <v>1.87</v>
+      </c>
+      <c r="U7">
+        <v>1.67</v>
+      </c>
+      <c r="V7">
+        <v>2.1</v>
+      </c>
+      <c r="W7">
+        <v>1.75</v>
+      </c>
+      <c r="X7">
+        <v>1.25</v>
+      </c>
+      <c r="Y7">
+        <v>1.3</v>
+      </c>
+      <c r="Z7">
+        <v>1.5</v>
+      </c>
+      <c r="AA7">
+        <v>1.7</v>
+      </c>
+      <c r="AB7">
+        <v>1.31</v>
+      </c>
+      <c r="AC7">
+        <v>1.57</v>
+      </c>
+      <c r="AD7">
         <v>2.88</v>
       </c>
-      <c r="H7">
-        <v>2.25</v>
-      </c>
-      <c r="I7">
-        <v>3.2</v>
-      </c>
-      <c r="J7">
-        <v>2.1</v>
-      </c>
-      <c r="K7">
-        <v>3.6</v>
-      </c>
-      <c r="L7">
-        <v>2.75</v>
-      </c>
-      <c r="M7">
-        <v>1.31</v>
-      </c>
-      <c r="N7">
-        <v>3.28</v>
-      </c>
-      <c r="O7">
-        <v>1.02</v>
-      </c>
-      <c r="P7">
-        <v>10</v>
-      </c>
-      <c r="Q7">
-        <v>1.18</v>
-      </c>
-      <c r="R7">
-        <v>4.05</v>
-      </c>
-      <c r="S7">
-        <v>1.65</v>
-      </c>
-      <c r="T7">
-        <v>2.1</v>
-      </c>
-      <c r="U7">
-        <v>1.57</v>
-      </c>
-      <c r="V7">
-        <v>2.25</v>
-      </c>
-      <c r="W7">
-        <v>1.33</v>
-      </c>
-      <c r="X7">
-        <v>1.26</v>
-      </c>
-      <c r="Y7">
-        <v>1.71</v>
-      </c>
-      <c r="Z7">
-        <v>2.1</v>
-      </c>
-      <c r="AA7">
-        <v>1.1</v>
-      </c>
-      <c r="AB7">
-        <v>1.41</v>
-      </c>
-      <c r="AC7">
-        <v>1.19</v>
-      </c>
-      <c r="AD7">
-        <v>2.6</v>
-      </c>
       <c r="AE7">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="AF7">
         <v>9.1</v>
       </c>
       <c r="AG7">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1721,28 +1721,28 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AK7">
         <v>3.1</v>
       </c>
       <c r="AL7">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="AM7">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AN7">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="AO7">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="AP7">
-        <v>2.65</v>
+        <v>2.33</v>
       </c>
       <c r="AQ7">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1765,85 +1765,85 @@
         <v>120</v>
       </c>
       <c r="G8">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="H8">
+        <v>2.25</v>
+      </c>
+      <c r="I8">
+        <v>3.1</v>
+      </c>
+      <c r="J8">
+        <v>1.78</v>
+      </c>
+      <c r="K8">
+        <v>3.67</v>
+      </c>
+      <c r="L8">
+        <v>3.65</v>
+      </c>
+      <c r="M8">
+        <v>1.31</v>
+      </c>
+      <c r="N8">
+        <v>3.28</v>
+      </c>
+      <c r="O8">
+        <v>1.02</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>1.18</v>
+      </c>
+      <c r="R8">
+        <v>4.05</v>
+      </c>
+      <c r="S8">
+        <v>1.65</v>
+      </c>
+      <c r="T8">
+        <v>2.16</v>
+      </c>
+      <c r="U8">
+        <v>1.57</v>
+      </c>
+      <c r="V8">
+        <v>2.25</v>
+      </c>
+      <c r="W8">
+        <v>1.33</v>
+      </c>
+      <c r="X8">
+        <v>1.26</v>
+      </c>
+      <c r="Y8">
+        <v>1.71</v>
+      </c>
+      <c r="Z8">
         <v>2.1</v>
       </c>
-      <c r="I8">
-        <v>2.63</v>
-      </c>
-      <c r="J8">
-        <v>3.15</v>
-      </c>
-      <c r="K8">
-        <v>3.4</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>1.38</v>
-      </c>
-      <c r="N8">
-        <v>2.8</v>
-      </c>
-      <c r="O8">
-        <v>1.05</v>
-      </c>
-      <c r="P8">
-        <v>8.5</v>
-      </c>
-      <c r="Q8">
-        <v>1.28</v>
-      </c>
-      <c r="R8">
-        <v>3.45</v>
-      </c>
-      <c r="S8">
-        <v>1.85</v>
-      </c>
-      <c r="T8">
-        <v>1.85</v>
-      </c>
-      <c r="U8">
-        <v>1.73</v>
-      </c>
-      <c r="V8">
-        <v>2</v>
-      </c>
-      <c r="W8">
-        <v>1.75</v>
-      </c>
-      <c r="X8">
-        <v>1.25</v>
-      </c>
-      <c r="Y8">
-        <v>1.3</v>
-      </c>
-      <c r="Z8">
-        <v>1.5</v>
-      </c>
       <c r="AA8">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="AB8">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AC8">
-        <v>1.57</v>
+        <v>1.19</v>
       </c>
       <c r="AD8">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="AE8">
-        <v>2.2</v>
+        <v>1.72</v>
       </c>
       <c r="AF8">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="AG8">
-        <v>1.85</v>
+        <v>2.43</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -1852,28 +1852,28 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AK8">
         <v>3.1</v>
       </c>
       <c r="AL8">
-        <v>1.54</v>
+        <v>2.25</v>
       </c>
       <c r="AM8">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AN8">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="AO8">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="AP8">
-        <v>2.33</v>
+        <v>2.65</v>
       </c>
       <c r="AQ8">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1896,115 +1896,115 @@
         <v>121</v>
       </c>
       <c r="G9">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="I9">
         <v>2.2</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>4.62</v>
       </c>
       <c r="K9">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L9">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="M9">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="N9">
-        <v>3.45</v>
+        <v>2.99</v>
       </c>
       <c r="O9">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="P9">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Q9">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="R9">
-        <v>4.75</v>
+        <v>3.48</v>
       </c>
       <c r="S9">
-        <v>1.53</v>
+        <v>1.82</v>
       </c>
       <c r="T9">
-        <v>2.35</v>
+        <v>1.92</v>
       </c>
       <c r="U9">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="V9">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="W9">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="X9">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="Y9">
+        <v>1.13</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
         <v>1.2</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
+        <v>1.24</v>
+      </c>
+      <c r="AC9">
+        <v>1.55</v>
+      </c>
+      <c r="AD9">
+        <v>2.79</v>
+      </c>
+      <c r="AE9">
+        <v>3.58</v>
+      </c>
+      <c r="AF9">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG9">
+        <v>1.38</v>
+      </c>
+      <c r="AH9">
+        <v>1.21</v>
+      </c>
+      <c r="AI9">
+        <v>3.74</v>
+      </c>
+      <c r="AJ9">
+        <v>1.39</v>
+      </c>
+      <c r="AK9">
+        <v>2.77</v>
+      </c>
+      <c r="AL9">
+        <v>1.73</v>
+      </c>
+      <c r="AM9">
+        <v>1.99</v>
+      </c>
+      <c r="AN9">
+        <v>2.2</v>
+      </c>
+      <c r="AO9">
         <v>1.6</v>
       </c>
-      <c r="AA9">
-        <v>1.1</v>
-      </c>
-      <c r="AB9">
-        <v>1.17</v>
-      </c>
-      <c r="AC9">
-        <v>1.64</v>
-      </c>
-      <c r="AD9">
-        <v>2.81</v>
-      </c>
-      <c r="AE9">
-        <v>2.97</v>
-      </c>
-      <c r="AF9">
-        <v>9.4</v>
-      </c>
-      <c r="AG9">
-        <v>1.51</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>1.33</v>
-      </c>
-      <c r="AK9">
-        <v>3.05</v>
-      </c>
-      <c r="AL9">
-        <v>1.74</v>
-      </c>
-      <c r="AM9">
-        <v>2.05</v>
-      </c>
-      <c r="AN9">
-        <v>2.16</v>
-      </c>
-      <c r="AO9">
-        <v>1.66</v>
-      </c>
       <c r="AP9">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="AQ9">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -2036,13 +2036,13 @@
         <v>3.4</v>
       </c>
       <c r="J10">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="K10">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>2.91</v>
+        <v>3.18</v>
       </c>
       <c r="M10">
         <v>1.22</v>
@@ -2063,10 +2063,10 @@
         <v>5.7</v>
       </c>
       <c r="S10">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="T10">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="U10">
         <v>1.4</v>
@@ -2167,13 +2167,13 @@
         <v>3.4</v>
       </c>
       <c r="J11">
-        <v>2.48</v>
+        <v>2.51</v>
       </c>
       <c r="K11">
-        <v>3.45</v>
+        <v>3.53</v>
       </c>
       <c r="L11">
-        <v>2.79</v>
+        <v>2.64</v>
       </c>
       <c r="M11">
         <v>1.33</v>
@@ -2194,10 +2194,10 @@
         <v>3.6</v>
       </c>
       <c r="S11">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="T11">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="U11">
         <v>1.62</v>
@@ -2298,13 +2298,13 @@
         <v>3.83</v>
       </c>
       <c r="J12">
-        <v>2.13</v>
+        <v>2.29</v>
       </c>
       <c r="K12">
-        <v>3.35</v>
+        <v>3.18</v>
       </c>
       <c r="L12">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
       <c r="M12">
         <v>1.36</v>
@@ -2325,10 +2325,10 @@
         <v>3.42</v>
       </c>
       <c r="S12">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="T12">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="U12">
         <v>1.7</v>
@@ -2429,13 +2429,13 @@
         <v>2.88</v>
       </c>
       <c r="J13">
-        <v>2.79</v>
+        <v>3.03</v>
       </c>
       <c r="K13">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L13">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="M13">
         <v>1.33</v>
@@ -2456,10 +2456,10 @@
         <v>3.95</v>
       </c>
       <c r="S13">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="T13">
-        <v>2.01</v>
+        <v>2.14</v>
       </c>
       <c r="U13">
         <v>1.62</v>
@@ -2560,13 +2560,13 @@
         <v>3.75</v>
       </c>
       <c r="J14">
-        <v>2.11</v>
+        <v>2.45</v>
       </c>
       <c r="K14">
-        <v>3.35</v>
+        <v>3.03</v>
       </c>
       <c r="L14">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="M14">
         <v>1.42</v>
@@ -2587,10 +2587,10 @@
         <v>3</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="T14">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="U14">
         <v>1.8</v>
@@ -2691,13 +2691,13 @@
         <v>4.75</v>
       </c>
       <c r="J15">
-        <v>1.75</v>
+        <v>2.06</v>
       </c>
       <c r="K15">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L15">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
         <v>1.4</v>
@@ -2718,10 +2718,10 @@
         <v>3.1</v>
       </c>
       <c r="S15">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
-        <v>1.64</v>
+        <v>1.81</v>
       </c>
       <c r="U15">
         <v>1.95</v>
@@ -3287,10 +3287,10 @@
         <v>2.23</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="AJ19">
         <v>1.26</v>
@@ -3477,13 +3477,13 @@
         <v>1.91</v>
       </c>
       <c r="J21">
-        <v>5.75</v>
+        <v>5.85</v>
       </c>
       <c r="K21">
-        <v>4.33</v>
+        <v>4.32</v>
       </c>
       <c r="L21">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="M21">
         <v>1.3</v>
@@ -3504,10 +3504,10 @@
         <v>4</v>
       </c>
       <c r="S21">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="T21">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="U21">
         <v>1.83</v>
@@ -3599,22 +3599,22 @@
         <v>134</v>
       </c>
       <c r="G22">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H22">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J22">
-        <v>1.83</v>
+        <v>1.52</v>
       </c>
       <c r="K22">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="L22">
-        <v>3.3</v>
+        <v>4.93</v>
       </c>
       <c r="M22">
         <v>1.25</v>
@@ -3635,16 +3635,16 @@
         <v>4.5</v>
       </c>
       <c r="S22">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="T22">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="U22">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V22">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W22">
         <v>1.15</v>
@@ -3692,7 +3692,7 @@
         <v>3.28</v>
       </c>
       <c r="AL22">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="AM22">
         <v>2.41</v>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2">
         <v>45387</v>
@@ -3721,7 +3721,7 @@
         <v>74</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
         <v>100</v>
@@ -3730,120 +3730,120 @@
         <v>135</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I23">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="J23">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="K23">
         <v>3.35</v>
       </c>
       <c r="L23">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="M23">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="N23">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="O23">
+        <v>1.06</v>
+      </c>
+      <c r="P23">
+        <v>7.2</v>
+      </c>
+      <c r="Q23">
+        <v>1.33</v>
+      </c>
+      <c r="R23">
+        <v>3.1</v>
+      </c>
+      <c r="S23">
+        <v>2.08</v>
+      </c>
+      <c r="T23">
+        <v>1.76</v>
+      </c>
+      <c r="U23">
+        <v>1.9</v>
+      </c>
+      <c r="V23">
+        <v>1.85</v>
+      </c>
+      <c r="W23">
+        <v>1.9</v>
+      </c>
+      <c r="X23">
+        <v>1.25</v>
+      </c>
+      <c r="Y23">
+        <v>1.18</v>
+      </c>
+      <c r="Z23">
         <v>1.08</v>
       </c>
-      <c r="P23">
-        <v>7</v>
-      </c>
-      <c r="Q23">
-        <v>1.4</v>
-      </c>
-      <c r="R23">
-        <v>2.75</v>
-      </c>
-      <c r="S23">
-        <v>2.18</v>
-      </c>
-      <c r="T23">
-        <v>1.6</v>
-      </c>
-      <c r="U23">
-        <v>1.91</v>
-      </c>
-      <c r="V23">
-        <v>1.8</v>
-      </c>
-      <c r="W23">
-        <v>1.75</v>
-      </c>
-      <c r="X23">
-        <v>1.26</v>
-      </c>
-      <c r="Y23">
+      <c r="AA23">
+        <v>1.08</v>
+      </c>
+      <c r="AB23">
+        <v>1.62</v>
+      </c>
+      <c r="AC23">
+        <v>1.63</v>
+      </c>
+      <c r="AD23">
+        <v>3.25</v>
+      </c>
+      <c r="AE23">
+        <v>2.64</v>
+      </c>
+      <c r="AF23">
+        <v>9.1</v>
+      </c>
+      <c r="AG23">
+        <v>1.62</v>
+      </c>
+      <c r="AH23">
         <v>1.21</v>
       </c>
-      <c r="Z23">
-        <v>1.47</v>
-      </c>
-      <c r="AA23">
-        <v>2</v>
-      </c>
-      <c r="AB23">
-        <v>1.36</v>
-      </c>
-      <c r="AC23">
-        <v>1.66</v>
-      </c>
-      <c r="AD23">
-        <v>3.02</v>
-      </c>
-      <c r="AE23">
-        <v>2.44</v>
-      </c>
-      <c r="AF23">
-        <v>8</v>
-      </c>
-      <c r="AG23">
-        <v>1.75</v>
-      </c>
-      <c r="AH23">
-        <v>1.19</v>
-      </c>
       <c r="AI23">
-        <v>3.98</v>
+        <v>3.74</v>
       </c>
       <c r="AJ23">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AK23">
-        <v>2.76</v>
+        <v>2.6</v>
       </c>
       <c r="AL23">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="AM23">
-        <v>2.13</v>
+        <v>1.95</v>
       </c>
       <c r="AN23">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="AO23">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="AP23">
-        <v>2.75</v>
+        <v>2.91</v>
       </c>
       <c r="AQ23">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="24" spans="1:43">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B24" s="2">
         <v>45387</v>
@@ -3852,7 +3852,7 @@
         <v>74</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
         <v>101</v>
@@ -3861,115 +3861,115 @@
         <v>136</v>
       </c>
       <c r="G24">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="J24">
-        <v>3.85</v>
+        <v>3.58</v>
       </c>
       <c r="K24">
-        <v>3.45</v>
+        <v>3.38</v>
       </c>
       <c r="L24">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="M24">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="N24">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="O24">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="P24">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Q24">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="R24">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="S24">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="T24">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="X24">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="Y24">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="Z24">
-        <v>1.08</v>
+        <v>1.47</v>
       </c>
       <c r="AA24">
-        <v>1.08</v>
+        <v>2</v>
       </c>
       <c r="AB24">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="AC24">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AD24">
-        <v>3.25</v>
+        <v>3.02</v>
       </c>
       <c r="AE24">
-        <v>2.64</v>
+        <v>2.44</v>
       </c>
       <c r="AF24">
-        <v>9.1</v>
+        <v>8</v>
       </c>
       <c r="AG24">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="AH24">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="AI24">
-        <v>3.74</v>
+        <v>3.98</v>
       </c>
       <c r="AJ24">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AK24">
-        <v>2.6</v>
+        <v>2.76</v>
       </c>
       <c r="AL24">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="AM24">
-        <v>1.95</v>
+        <v>2.13</v>
       </c>
       <c r="AN24">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="AO24">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="AP24">
-        <v>2.91</v>
+        <v>2.75</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="25" spans="1:43">
@@ -3983,7 +3983,7 @@
         <v>74</v>
       </c>
       <c r="D25">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
         <v>102</v>
@@ -3992,120 +3992,120 @@
         <v>137</v>
       </c>
       <c r="G25">
+        <v>2.73</v>
+      </c>
+      <c r="H25">
+        <v>2.02</v>
+      </c>
+      <c r="I25">
+        <v>5.39</v>
+      </c>
+      <c r="J25">
+        <v>1.91</v>
+      </c>
+      <c r="K25">
+        <v>3.12</v>
+      </c>
+      <c r="L25">
+        <v>4.07</v>
+      </c>
+      <c r="M25">
+        <v>1.58</v>
+      </c>
+      <c r="N25">
+        <v>2.44</v>
+      </c>
+      <c r="O25">
+        <v>1.1</v>
+      </c>
+      <c r="P25">
+        <v>6.5</v>
+      </c>
+      <c r="Q25">
+        <v>1.48</v>
+      </c>
+      <c r="R25">
+        <v>2.45</v>
+      </c>
+      <c r="S25">
         <v>2.4</v>
       </c>
-      <c r="H25">
-        <v>2.3</v>
-      </c>
-      <c r="I25">
-        <v>4.33</v>
-      </c>
-      <c r="J25">
-        <v>1.94</v>
-      </c>
-      <c r="K25">
-        <v>3.75</v>
-      </c>
-      <c r="L25">
-        <v>3.85</v>
-      </c>
-      <c r="M25">
-        <v>1.33</v>
-      </c>
-      <c r="N25">
-        <v>3.25</v>
-      </c>
-      <c r="O25">
-        <v>1.03</v>
-      </c>
-      <c r="P25">
-        <v>15</v>
-      </c>
-      <c r="Q25">
+      <c r="T25">
+        <v>1.44</v>
+      </c>
+      <c r="U25">
+        <v>2.1</v>
+      </c>
+      <c r="V25">
+        <v>1.62</v>
+      </c>
+      <c r="W25">
+        <v>1.2</v>
+      </c>
+      <c r="X25">
+        <v>1.3</v>
+      </c>
+      <c r="Y25">
+        <v>1.8</v>
+      </c>
+      <c r="Z25">
+        <v>2</v>
+      </c>
+      <c r="AA25">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB25">
+        <v>1.71</v>
+      </c>
+      <c r="AC25">
+        <v>1.17</v>
+      </c>
+      <c r="AD25">
+        <v>2.88</v>
+      </c>
+      <c r="AE25">
+        <v>1.55</v>
+      </c>
+      <c r="AF25">
+        <v>8.5</v>
+      </c>
+      <c r="AG25">
+        <v>2.91</v>
+      </c>
+      <c r="AH25">
         <v>1.24</v>
       </c>
-      <c r="R25">
-        <v>4.2</v>
-      </c>
-      <c r="S25">
-        <v>1.72</v>
-      </c>
-      <c r="T25">
-        <v>2.02</v>
-      </c>
-      <c r="U25">
-        <v>1.67</v>
-      </c>
-      <c r="V25">
-        <v>2.1</v>
-      </c>
-      <c r="W25">
-        <v>1.24</v>
-      </c>
-      <c r="X25">
-        <v>1.22</v>
-      </c>
-      <c r="Y25">
-        <v>2</v>
-      </c>
-      <c r="Z25">
-        <v>1.85</v>
-      </c>
-      <c r="AA25">
-        <v>0.92</v>
-      </c>
-      <c r="AB25">
-        <v>1.39</v>
-      </c>
-      <c r="AC25">
-        <v>1.15</v>
-      </c>
-      <c r="AD25">
-        <v>2.54</v>
-      </c>
-      <c r="AE25">
-        <v>1.52</v>
-      </c>
-      <c r="AF25">
-        <v>8</v>
-      </c>
-      <c r="AG25">
+      <c r="AI25">
+        <v>3.5</v>
+      </c>
+      <c r="AJ25">
+        <v>1.44</v>
+      </c>
+      <c r="AK25">
+        <v>2.5</v>
+      </c>
+      <c r="AL25">
+        <v>1.82</v>
+      </c>
+      <c r="AM25">
+        <v>1.98</v>
+      </c>
+      <c r="AN25">
+        <v>2.25</v>
+      </c>
+      <c r="AO25">
+        <v>1.54</v>
+      </c>
+      <c r="AP25">
         <v>3</v>
       </c>
-      <c r="AH25">
-        <v>1.29</v>
-      </c>
-      <c r="AI25">
-        <v>3</v>
-      </c>
-      <c r="AJ25">
-        <v>1.54</v>
-      </c>
-      <c r="AK25">
-        <v>2.23</v>
-      </c>
-      <c r="AL25">
-        <v>1.91</v>
-      </c>
-      <c r="AM25">
-        <v>1.78</v>
-      </c>
-      <c r="AN25">
-        <v>2.43</v>
-      </c>
-      <c r="AO25">
-        <v>1.46</v>
-      </c>
-      <c r="AP25">
-        <v>3.2</v>
-      </c>
       <c r="AQ25">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="26" spans="1:43">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2">
         <v>45387</v>
@@ -4132,13 +4132,13 @@
         <v>3.38</v>
       </c>
       <c r="J26">
-        <v>2.82</v>
+        <v>2.93</v>
       </c>
       <c r="K26">
-        <v>2.96</v>
+        <v>2.91</v>
       </c>
       <c r="L26">
-        <v>2.58</v>
+        <v>2.47</v>
       </c>
       <c r="M26">
         <v>1.59</v>
@@ -4153,13 +4153,13 @@
         <v>6</v>
       </c>
       <c r="Q26">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R26">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="S26">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="T26">
         <v>1.45</v>
@@ -4245,7 +4245,7 @@
         <v>74</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
         <v>104</v>
@@ -4254,115 +4254,115 @@
         <v>139</v>
       </c>
       <c r="G27">
-        <v>2.73</v>
+        <v>2.4</v>
       </c>
       <c r="H27">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="I27">
-        <v>5.39</v>
+        <v>4.33</v>
       </c>
       <c r="J27">
+        <v>1.77</v>
+      </c>
+      <c r="K27">
+        <v>3.87</v>
+      </c>
+      <c r="L27">
+        <v>3.9</v>
+      </c>
+      <c r="M27">
+        <v>1.33</v>
+      </c>
+      <c r="N27">
+        <v>3.25</v>
+      </c>
+      <c r="O27">
+        <v>1.03</v>
+      </c>
+      <c r="P27">
+        <v>15</v>
+      </c>
+      <c r="Q27">
+        <v>1.24</v>
+      </c>
+      <c r="R27">
+        <v>4.2</v>
+      </c>
+      <c r="S27">
+        <v>1.73</v>
+      </c>
+      <c r="T27">
+        <v>1.99</v>
+      </c>
+      <c r="U27">
+        <v>1.67</v>
+      </c>
+      <c r="V27">
+        <v>2.1</v>
+      </c>
+      <c r="W27">
+        <v>1.24</v>
+      </c>
+      <c r="X27">
+        <v>1.22</v>
+      </c>
+      <c r="Y27">
         <v>2</v>
       </c>
-      <c r="K27">
-        <v>3.15</v>
-      </c>
-      <c r="L27">
-        <v>3.8</v>
-      </c>
-      <c r="M27">
-        <v>1.58</v>
-      </c>
-      <c r="N27">
-        <v>2.44</v>
-      </c>
-      <c r="O27">
-        <v>1.1</v>
-      </c>
-      <c r="P27">
-        <v>6.5</v>
-      </c>
-      <c r="Q27">
-        <v>1.47</v>
-      </c>
-      <c r="R27">
-        <v>2.5</v>
-      </c>
-      <c r="S27">
-        <v>2.55</v>
-      </c>
-      <c r="T27">
-        <v>1.45</v>
-      </c>
-      <c r="U27">
-        <v>2.1</v>
-      </c>
-      <c r="V27">
-        <v>1.62</v>
-      </c>
-      <c r="W27">
-        <v>1.2</v>
-      </c>
-      <c r="X27">
-        <v>1.3</v>
-      </c>
-      <c r="Y27">
-        <v>1.8</v>
-      </c>
       <c r="Z27">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AA27">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AB27">
-        <v>1.71</v>
+        <v>1.39</v>
       </c>
       <c r="AC27">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AD27">
-        <v>2.88</v>
+        <v>2.54</v>
       </c>
       <c r="AE27">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AF27">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG27">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="AH27">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AI27">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AJ27">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="AK27">
-        <v>2.5</v>
+        <v>2.23</v>
       </c>
       <c r="AL27">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="AM27">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="AN27">
-        <v>2.25</v>
+        <v>2.43</v>
       </c>
       <c r="AO27">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="AP27">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AQ27">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -4376,7 +4376,7 @@
         <v>75</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
         <v>105</v>
@@ -4385,120 +4385,120 @@
         <v>140</v>
       </c>
       <c r="G28">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H28">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="J28">
-        <v>1.95</v>
+        <v>2.63</v>
       </c>
       <c r="K28">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="L28">
-        <v>3.45</v>
+        <v>2.5</v>
       </c>
       <c r="M28">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="N28">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O28">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P28">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q28">
         <v>1.28</v>
       </c>
       <c r="R28">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="S28">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="T28">
-        <v>1.85</v>
+        <v>2.09</v>
       </c>
       <c r="U28">
         <v>1.67</v>
       </c>
       <c r="V28">
+        <v>2.1</v>
+      </c>
+      <c r="W28">
+        <v>1.65</v>
+      </c>
+      <c r="X28">
+        <v>1.28</v>
+      </c>
+      <c r="Y28">
+        <v>1.38</v>
+      </c>
+      <c r="Z28">
+        <v>0.47</v>
+      </c>
+      <c r="AA28">
+        <v>0.53</v>
+      </c>
+      <c r="AB28">
+        <v>1.3</v>
+      </c>
+      <c r="AC28">
+        <v>1.25</v>
+      </c>
+      <c r="AD28">
+        <v>2.55</v>
+      </c>
+      <c r="AE28">
+        <v>2.04</v>
+      </c>
+      <c r="AF28">
+        <v>8</v>
+      </c>
+      <c r="AG28">
         <v>2</v>
       </c>
-      <c r="W28">
-        <v>1.22</v>
-      </c>
-      <c r="X28">
-        <v>1.25</v>
-      </c>
-      <c r="Y28">
-        <v>1.77</v>
-      </c>
-      <c r="Z28">
-        <v>1.36</v>
-      </c>
-      <c r="AA28">
-        <v>0.93</v>
-      </c>
-      <c r="AB28">
+      <c r="AH28">
+        <v>1.18</v>
+      </c>
+      <c r="AI28">
+        <v>3.95</v>
+      </c>
+      <c r="AJ28">
+        <v>1.34</v>
+      </c>
+      <c r="AK28">
+        <v>2.8</v>
+      </c>
+      <c r="AL28">
+        <v>1.6</v>
+      </c>
+      <c r="AM28">
+        <v>2.15</v>
+      </c>
+      <c r="AN28">
+        <v>1.97</v>
+      </c>
+      <c r="AO28">
+        <v>1.72</v>
+      </c>
+      <c r="AP28">
+        <v>2.48</v>
+      </c>
+      <c r="AQ28">
         <v>1.44</v>
-      </c>
-      <c r="AC28">
-        <v>1.32</v>
-      </c>
-      <c r="AD28">
-        <v>2.76</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:43">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" s="2">
         <v>45387</v>
@@ -4516,115 +4516,115 @@
         <v>141</v>
       </c>
       <c r="G29">
+        <v>2.63</v>
+      </c>
+      <c r="H29">
+        <v>2.2</v>
+      </c>
+      <c r="I29">
+        <v>3.75</v>
+      </c>
+      <c r="J29">
+        <v>2.06</v>
+      </c>
+      <c r="K29">
+        <v>3.43</v>
+      </c>
+      <c r="L29">
+        <v>3.18</v>
+      </c>
+      <c r="M29">
+        <v>1.36</v>
+      </c>
+      <c r="N29">
+        <v>2.85</v>
+      </c>
+      <c r="O29">
+        <v>1.03</v>
+      </c>
+      <c r="P29">
+        <v>9</v>
+      </c>
+      <c r="Q29">
+        <v>1.28</v>
+      </c>
+      <c r="R29">
+        <v>3.55</v>
+      </c>
+      <c r="S29">
+        <v>1.81</v>
+      </c>
+      <c r="T29">
+        <v>1.89</v>
+      </c>
+      <c r="U29">
+        <v>1.67</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>1.28</v>
+      </c>
+      <c r="X29">
+        <v>1.25</v>
+      </c>
+      <c r="Y29">
+        <v>1.7</v>
+      </c>
+      <c r="Z29">
+        <v>1.73</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>1.39</v>
+      </c>
+      <c r="AC29">
+        <v>1.29</v>
+      </c>
+      <c r="AD29">
+        <v>2.68</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
         <v>1.4</v>
       </c>
-      <c r="H29">
-        <v>3.2</v>
-      </c>
-      <c r="I29">
-        <v>13</v>
-      </c>
-      <c r="J29">
-        <v>1.1</v>
-      </c>
-      <c r="K29">
-        <v>9</v>
-      </c>
-      <c r="L29">
-        <v>11</v>
-      </c>
-      <c r="M29">
-        <v>1.2</v>
-      </c>
-      <c r="N29">
-        <v>4.33</v>
-      </c>
-      <c r="O29">
-        <v>1.02</v>
-      </c>
-      <c r="P29">
-        <v>18</v>
-      </c>
-      <c r="Q29">
-        <v>1.07</v>
-      </c>
-      <c r="R29">
-        <v>6.25</v>
-      </c>
-      <c r="S29">
-        <v>1.36</v>
-      </c>
-      <c r="T29">
-        <v>3</v>
-      </c>
-      <c r="U29">
-        <v>2.38</v>
-      </c>
-      <c r="V29">
-        <v>1.53</v>
-      </c>
-      <c r="W29">
-        <v>1.02</v>
-      </c>
-      <c r="X29">
-        <v>1.03</v>
-      </c>
-      <c r="Y29">
-        <v>5.95</v>
-      </c>
-      <c r="Z29">
-        <v>2.85</v>
-      </c>
-      <c r="AA29">
-        <v>1.29</v>
-      </c>
-      <c r="AB29">
-        <v>2.69</v>
-      </c>
-      <c r="AC29">
-        <v>1.51</v>
-      </c>
-      <c r="AD29">
-        <v>4.2</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
       <c r="AI29">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AJ29">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AK29">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AM29">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -4638,7 +4638,7 @@
         <v>75</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
         <v>107</v>
@@ -4647,120 +4647,120 @@
         <v>142</v>
       </c>
       <c r="G30">
-        <v>2.66</v>
+        <v>1.4</v>
       </c>
       <c r="H30">
-        <v>2.27</v>
+        <v>3.2</v>
       </c>
       <c r="I30">
-        <v>4.18</v>
+        <v>13</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="K30">
-        <v>3.45</v>
+        <v>9</v>
       </c>
       <c r="L30">
-        <v>3.65</v>
+        <v>11</v>
       </c>
       <c r="M30">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="N30">
-        <v>3.07</v>
+        <v>4.33</v>
       </c>
       <c r="O30">
         <v>1.02</v>
       </c>
       <c r="P30">
-        <v>9.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="Q30">
-        <v>1.27</v>
+        <v>1.07</v>
       </c>
       <c r="R30">
-        <v>3.28</v>
+        <v>6.25</v>
       </c>
       <c r="S30">
+        <v>1.36</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>2.38</v>
+      </c>
+      <c r="V30">
+        <v>1.53</v>
+      </c>
+      <c r="W30">
+        <v>1.02</v>
+      </c>
+      <c r="X30">
+        <v>1.03</v>
+      </c>
+      <c r="Y30">
+        <v>5.95</v>
+      </c>
+      <c r="Z30">
+        <v>2.85</v>
+      </c>
+      <c r="AA30">
+        <v>1.29</v>
+      </c>
+      <c r="AB30">
+        <v>2.69</v>
+      </c>
+      <c r="AC30">
+        <v>1.51</v>
+      </c>
+      <c r="AD30">
+        <v>4.2</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
         <v>1.92</v>
       </c>
-      <c r="T30">
-        <v>1.89</v>
-      </c>
-      <c r="U30">
-        <v>1.75</v>
-      </c>
-      <c r="V30">
-        <v>2.01</v>
-      </c>
-      <c r="W30">
-        <v>1.3</v>
-      </c>
-      <c r="X30">
-        <v>1.3</v>
-      </c>
-      <c r="Y30">
-        <v>1.77</v>
-      </c>
-      <c r="Z30">
-        <v>1.67</v>
-      </c>
-      <c r="AA30">
-        <v>0.8</v>
-      </c>
-      <c r="AB30">
-        <v>1.61</v>
-      </c>
-      <c r="AC30">
-        <v>1.24</v>
-      </c>
-      <c r="AD30">
-        <v>2.85</v>
-      </c>
-      <c r="AE30">
-        <v>1.87</v>
-      </c>
-      <c r="AF30">
-        <v>7</v>
-      </c>
-      <c r="AG30">
-        <v>2.28</v>
-      </c>
-      <c r="AH30">
-        <v>1.26</v>
-      </c>
-      <c r="AI30">
-        <v>3.34</v>
-      </c>
-      <c r="AJ30">
-        <v>1.47</v>
-      </c>
-      <c r="AK30">
-        <v>2.55</v>
-      </c>
-      <c r="AL30">
-        <v>1.8</v>
-      </c>
-      <c r="AM30">
-        <v>2</v>
-      </c>
-      <c r="AN30">
-        <v>2.33</v>
-      </c>
-      <c r="AO30">
-        <v>1.54</v>
-      </c>
-      <c r="AP30">
-        <v>3.28</v>
-      </c>
       <c r="AQ30">
-        <v>1.27</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="31" spans="1:43">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" s="2">
         <v>45387</v>
@@ -4778,28 +4778,28 @@
         <v>143</v>
       </c>
       <c r="G31">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H31">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I31">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K31">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L31">
-        <v>3.05</v>
+        <v>3.47</v>
       </c>
       <c r="M31">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="N31">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="O31">
         <v>1.03</v>
@@ -4811,13 +4811,13 @@
         <v>1.28</v>
       </c>
       <c r="R31">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="S31">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T31">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U31">
         <v>1.67</v>
@@ -4826,28 +4826,28 @@
         <v>2</v>
       </c>
       <c r="W31">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="X31">
         <v>1.25</v>
       </c>
       <c r="Y31">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="Z31">
-        <v>1.73</v>
+        <v>1.36</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AB31">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AC31">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AD31">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="AE31">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>75</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
         <v>109</v>
@@ -4909,115 +4909,115 @@
         <v>144</v>
       </c>
       <c r="G32">
-        <v>3.5</v>
+        <v>2.66</v>
       </c>
       <c r="H32">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="I32">
-        <v>2.88</v>
+        <v>4.18</v>
       </c>
       <c r="J32">
-        <v>2.6</v>
+        <v>2.16</v>
       </c>
       <c r="K32">
-        <v>3.35</v>
+        <v>3.42</v>
       </c>
       <c r="L32">
-        <v>2.5</v>
+        <v>3.28</v>
       </c>
       <c r="M32">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>3.07</v>
       </c>
       <c r="O32">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="P32">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q32">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="R32">
-        <v>3.75</v>
+        <v>3.28</v>
       </c>
       <c r="S32">
-        <v>1.72</v>
+        <v>1.94</v>
       </c>
       <c r="T32">
-        <v>2.04</v>
+        <v>1.77</v>
       </c>
       <c r="U32">
+        <v>1.75</v>
+      </c>
+      <c r="V32">
+        <v>2.01</v>
+      </c>
+      <c r="W32">
+        <v>1.3</v>
+      </c>
+      <c r="X32">
+        <v>1.3</v>
+      </c>
+      <c r="Y32">
+        <v>1.77</v>
+      </c>
+      <c r="Z32">
         <v>1.67</v>
       </c>
-      <c r="V32">
-        <v>2.1</v>
-      </c>
-      <c r="W32">
-        <v>1.65</v>
-      </c>
-      <c r="X32">
-        <v>1.28</v>
-      </c>
-      <c r="Y32">
-        <v>1.38</v>
-      </c>
-      <c r="Z32">
-        <v>0.47</v>
-      </c>
       <c r="AA32">
-        <v>0.53</v>
+        <v>0.8</v>
       </c>
       <c r="AB32">
-        <v>1.3</v>
+        <v>1.61</v>
       </c>
       <c r="AC32">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AD32">
+        <v>2.85</v>
+      </c>
+      <c r="AE32">
+        <v>1.87</v>
+      </c>
+      <c r="AF32">
+        <v>7</v>
+      </c>
+      <c r="AG32">
+        <v>2.28</v>
+      </c>
+      <c r="AH32">
+        <v>1.26</v>
+      </c>
+      <c r="AI32">
+        <v>3.34</v>
+      </c>
+      <c r="AJ32">
+        <v>1.47</v>
+      </c>
+      <c r="AK32">
         <v>2.55</v>
       </c>
-      <c r="AE32">
-        <v>2.04</v>
-      </c>
-      <c r="AF32">
-        <v>8</v>
-      </c>
-      <c r="AG32">
+      <c r="AL32">
+        <v>1.8</v>
+      </c>
+      <c r="AM32">
         <v>2</v>
       </c>
-      <c r="AH32">
-        <v>1.18</v>
-      </c>
-      <c r="AI32">
-        <v>3.95</v>
-      </c>
-      <c r="AJ32">
-        <v>1.34</v>
-      </c>
-      <c r="AK32">
-        <v>2.8</v>
-      </c>
-      <c r="AL32">
-        <v>1.6</v>
-      </c>
-      <c r="AM32">
-        <v>2.15</v>
-      </c>
       <c r="AN32">
-        <v>1.97</v>
+        <v>2.33</v>
       </c>
       <c r="AO32">
-        <v>1.72</v>
+        <v>1.54</v>
       </c>
       <c r="AP32">
-        <v>2.48</v>
+        <v>3.28</v>
       </c>
       <c r="AQ32">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="33" spans="1:43">
@@ -5031,7 +5031,7 @@
         <v>76</v>
       </c>
       <c r="D33">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E33" t="s">
         <v>110</v>
@@ -5040,28 +5040,28 @@
         <v>145</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="H33">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I33">
-        <v>2.65</v>
+        <v>3.75</v>
       </c>
       <c r="J33">
-        <v>3.55</v>
+        <v>2.09</v>
       </c>
       <c r="K33">
-        <v>3.55</v>
+        <v>3.33</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>3.33</v>
       </c>
       <c r="M33">
         <v>1.4</v>
       </c>
       <c r="N33">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O33">
         <v>1.05</v>
@@ -5070,85 +5070,85 @@
         <v>11</v>
       </c>
       <c r="Q33">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R33">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U33">
         <v>1.75</v>
       </c>
       <c r="V33">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="X33">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Y33">
-        <v>1.3</v>
+        <v>1.68</v>
       </c>
       <c r="Z33">
-        <v>0.95</v>
+        <v>2.31</v>
       </c>
       <c r="AA33">
-        <v>0.65</v>
+        <v>0.77</v>
       </c>
       <c r="AB33">
-        <v>1.04</v>
+        <v>1.7</v>
       </c>
       <c r="AC33">
+        <v>1.44</v>
+      </c>
+      <c r="AD33">
+        <v>3.14</v>
+      </c>
+      <c r="AE33">
+        <v>1.76</v>
+      </c>
+      <c r="AF33">
+        <v>7.5</v>
+      </c>
+      <c r="AG33">
+        <v>2.43</v>
+      </c>
+      <c r="AH33">
+        <v>1.34</v>
+      </c>
+      <c r="AI33">
+        <v>2.8</v>
+      </c>
+      <c r="AJ33">
+        <v>1.62</v>
+      </c>
+      <c r="AK33">
+        <v>2.1</v>
+      </c>
+      <c r="AL33">
+        <v>2.04</v>
+      </c>
+      <c r="AM33">
+        <v>1.67</v>
+      </c>
+      <c r="AN33">
+        <v>2.63</v>
+      </c>
+      <c r="AO33">
+        <v>1.38</v>
+      </c>
+      <c r="AP33">
+        <v>3.5</v>
+      </c>
+      <c r="AQ33">
         <v>1.22</v>
-      </c>
-      <c r="AD33">
-        <v>2.26</v>
-      </c>
-      <c r="AE33">
-        <v>2.78</v>
-      </c>
-      <c r="AF33">
-        <v>8.5</v>
-      </c>
-      <c r="AG33">
-        <v>1.59</v>
-      </c>
-      <c r="AH33">
-        <v>1.12</v>
-      </c>
-      <c r="AI33">
-        <v>5</v>
-      </c>
-      <c r="AJ33">
-        <v>1.3</v>
-      </c>
-      <c r="AK33">
-        <v>3.3</v>
-      </c>
-      <c r="AL33">
-        <v>1.53</v>
-      </c>
-      <c r="AM33">
-        <v>2.45</v>
-      </c>
-      <c r="AN33">
-        <v>1.82</v>
-      </c>
-      <c r="AO33">
-        <v>1.98</v>
-      </c>
-      <c r="AP33">
-        <v>2.3</v>
-      </c>
-      <c r="AQ33">
-        <v>1.57</v>
       </c>
     </row>
     <row r="34" spans="1:43">
@@ -5162,7 +5162,7 @@
         <v>76</v>
       </c>
       <c r="D34">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
         <v>111</v>
@@ -5171,28 +5171,28 @@
         <v>146</v>
       </c>
       <c r="G34">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I34">
-        <v>3.75</v>
+        <v>2.65</v>
       </c>
       <c r="J34">
-        <v>2.12</v>
+        <v>3.68</v>
       </c>
       <c r="K34">
-        <v>3.45</v>
+        <v>3.58</v>
       </c>
       <c r="L34">
-        <v>3.35</v>
+        <v>1.96</v>
       </c>
       <c r="M34">
         <v>1.4</v>
       </c>
       <c r="N34">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O34">
         <v>1.05</v>
@@ -5201,13 +5201,13 @@
         <v>11</v>
       </c>
       <c r="Q34">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R34">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="S34">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="T34">
         <v>1.89</v>
@@ -5216,70 +5216,70 @@
         <v>1.75</v>
       </c>
       <c r="V34">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W34">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="X34">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Y34">
-        <v>1.68</v>
+        <v>1.3</v>
       </c>
       <c r="Z34">
-        <v>2.31</v>
+        <v>0.95</v>
       </c>
       <c r="AA34">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="AB34">
-        <v>1.7</v>
+        <v>1.04</v>
       </c>
       <c r="AC34">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="AD34">
-        <v>3.14</v>
+        <v>2.26</v>
       </c>
       <c r="AE34">
-        <v>1.76</v>
+        <v>2.78</v>
       </c>
       <c r="AF34">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG34">
-        <v>2.43</v>
+        <v>1.59</v>
       </c>
       <c r="AH34">
-        <v>1.34</v>
+        <v>1.12</v>
       </c>
       <c r="AI34">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="AJ34">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="AK34">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="AL34">
-        <v>2.04</v>
+        <v>1.53</v>
       </c>
       <c r="AM34">
-        <v>1.67</v>
+        <v>2.45</v>
       </c>
       <c r="AN34">
-        <v>2.63</v>
+        <v>1.82</v>
       </c>
       <c r="AO34">
-        <v>1.38</v>
+        <v>1.98</v>
       </c>
       <c r="AP34">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="AQ34">
-        <v>1.22</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="35" spans="1:43">
@@ -5311,13 +5311,13 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="K35">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="L35">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -5338,10 +5338,10 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="T35">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -5436,19 +5436,19 @@
         <v>2.1</v>
       </c>
       <c r="H36">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="I36">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J36">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="K36">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L36">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M36">
         <v>1.46</v>
@@ -5469,16 +5469,16 @@
         <v>1.63</v>
       </c>
       <c r="S36">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="T36">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="U36">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V36">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W36">
         <v>1.14</v>
